--- a/afar_project/csv_path/sample/asset_registerxxx.xlsx
+++ b/afar_project/csv_path/sample/asset_registerxxx.xlsx
@@ -596,11 +596,7 @@
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>56862.00</t>
@@ -698,11 +694,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>22253.00</t>
@@ -796,11 +788,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>10810.00</t>
@@ -894,11 +882,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>21481.00</t>
@@ -992,11 +976,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>11653.00</t>
@@ -1090,11 +1070,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>32151.00</t>
@@ -1188,11 +1164,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>24570.00</t>
@@ -1274,11 +1246,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>47855.00</t>
@@ -1364,11 +1332,7 @@
           <t>270 ft</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>24830.00</t>
@@ -1454,11 +1418,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>105164.00</t>
@@ -1544,11 +1504,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>55000.00</t>
@@ -1630,11 +1586,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>50900.00</t>
@@ -1728,11 +1680,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>56900.00</t>
@@ -1822,11 +1770,7 @@
           <t>8</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>38400.00</t>
@@ -1924,11 +1868,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>16900.00</t>
@@ -2014,11 +1954,7 @@
           <t>120 ft</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>19500.00</t>
@@ -2112,11 +2048,7 @@
           <t>6</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>30145.79</t>
@@ -2214,11 +2146,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>18900.00</t>
@@ -2316,11 +2244,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>13500.00</t>
@@ -2414,11 +2338,7 @@
           <t>(1+1+1+1)</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>30450.00</t>
@@ -2500,11 +2420,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>4300.00</t>
@@ -2590,11 +2506,7 @@
           <t>5 pcs</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>28288.00</t>
@@ -2680,11 +2592,7 @@
           <t>3+3+6+1+1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>20199.00</t>
@@ -2774,11 +2682,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>55106.00</t>
@@ -2868,11 +2772,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>11700.00</t>
@@ -2962,11 +2862,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>25920.00</t>
@@ -3056,11 +2952,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>255360.00</t>
@@ -3154,11 +3046,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>56300.00</t>
@@ -3256,11 +3144,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>240000.00</t>
@@ -3354,11 +3238,7 @@
           <t>(2+1)</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>48000.00</t>
@@ -3448,11 +3328,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>28800.00</t>
@@ -3538,11 +3414,7 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>362600.00</t>
@@ -3628,11 +3500,7 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>13375.00</t>
@@ -3722,11 +3590,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>12300.00</t>
@@ -3820,11 +3684,7 @@
           <t>(2+2)</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>97300.00</t>
@@ -3910,11 +3770,7 @@
           <t>9 pcs</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>53770.00</t>
@@ -4008,11 +3864,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>106500.00</t>
@@ -4110,11 +3962,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>196000.00</t>
@@ -4208,11 +4056,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>15000.00</t>
@@ -4306,11 +4150,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>6375.00</t>
@@ -4396,11 +4236,7 @@
           <t>296 SFT</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>16408.00</t>
@@ -4490,11 +4326,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>12900.00</t>
@@ -4592,11 +4424,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>11723.36</t>
@@ -4686,11 +4514,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>2930.84</t>
@@ -4776,11 +4600,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>10400.00</t>
@@ -4862,11 +4682,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>80250.00</t>
@@ -4960,11 +4776,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>48215.00</t>
@@ -5062,11 +4874,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>54124.00</t>
@@ -5164,11 +4972,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>97240.00</t>
@@ -5262,11 +5066,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>167000.00</t>
@@ -5364,11 +5164,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>385050.00</t>
@@ -5462,11 +5258,7 @@
           <t>2+4</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>119900.00</t>
@@ -5560,11 +5352,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>57021.00</t>
@@ -5658,11 +5446,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>13789.80</t>
@@ -5756,11 +5540,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>6550.00</t>
@@ -5858,11 +5638,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>27379.00</t>
@@ -5956,11 +5732,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>57400.00</t>
@@ -6054,11 +5826,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>36220.00</t>
@@ -6152,11 +5920,7 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>101042.00</t>
@@ -6246,11 +6010,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>83200.00</t>
@@ -6336,11 +6096,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>146100.00</t>
@@ -6434,11 +6190,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>18368.00</t>
@@ -6528,11 +6280,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>17072.14</t>
@@ -6626,11 +6374,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>90000.00</t>
@@ -6728,11 +6472,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>197600.00</t>
@@ -6818,11 +6558,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>57700.00</t>
@@ -6912,11 +6648,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>55000.00</t>
@@ -7006,11 +6738,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>25000.00</t>
@@ -7100,11 +6828,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>46980.00</t>
@@ -7198,11 +6922,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>7330.00</t>
@@ -7288,11 +7008,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>46000.00</t>
@@ -7386,11 +7102,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>9500.00</t>
@@ -7480,11 +7192,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>16800.00</t>
@@ -7578,11 +7286,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>12750.00</t>
@@ -7676,11 +7380,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>31500.00</t>
@@ -7766,11 +7466,7 @@
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>20662.00</t>
@@ -7864,11 +7560,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>16963.00</t>
@@ -7958,11 +7650,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>12000.00</t>
@@ -8048,11 +7736,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>5000.00</t>
@@ -8146,11 +7830,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>63665.00</t>
@@ -8240,11 +7920,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>3745.00</t>
@@ -8338,11 +8014,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>18725.00</t>
@@ -8436,11 +8108,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>28890.00</t>
@@ -8526,11 +8194,7 @@
           <t>12</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>39380.00</t>
@@ -8624,11 +8288,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
           <t>15194.00</t>
@@ -8722,11 +8382,7 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>5350.00</t>
@@ -8812,11 +8468,7 @@
           <t>50+100</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
           <t>62500.00</t>
@@ -8902,11 +8554,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
           <t>12305.00</t>
@@ -9000,11 +8648,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>172056.00</t>
@@ -9094,11 +8738,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>5564.00</t>
@@ -9188,11 +8828,7 @@
           <t>707.2 sft</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>311168.00</t>
@@ -9286,11 +8922,7 @@
           <t>252  sft</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>60480.00</t>
@@ -9384,11 +9016,7 @@
           <t>14</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
           <t>14000.00</t>
@@ -9486,11 +9114,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
           <t>337568.00</t>
@@ -9580,11 +9204,7 @@
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
           <t>35000.00</t>
@@ -9670,11 +9290,7 @@
           <t>(3+1+2+1+1)</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
           <t>36700.00</t>
@@ -9764,11 +9380,7 @@
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
           <t>214136.00</t>
@@ -9862,11 +9474,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
           <t>9276465.00</t>
@@ -9960,11 +9568,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
           <t>9046900.00</t>
@@ -10050,11 +9654,7 @@
           <t>50+50+10</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>110.00</t>
-        </is>
-      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
           <t>42801.00</t>
@@ -10140,11 +9740,7 @@
           <t>(18+12+3)</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
+      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>20100.00</t>
@@ -10230,11 +9826,7 @@
           <t>36</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>36.00</t>
-        </is>
-      </c>
+      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
           <t>4320.00</t>
@@ -10328,11 +9920,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
           <t>186384.00</t>
@@ -10418,11 +10006,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
           <t>9900.00</t>
@@ -10516,11 +10100,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
           <t>57800.00</t>
@@ -10614,11 +10194,7 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
           <t>374075.00</t>
@@ -10716,11 +10292,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>182937.00</t>
@@ -10814,11 +10386,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
           <t>9146.00</t>
@@ -10904,11 +10472,7 @@
           <t>200 pcs</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>200.00</t>
-        </is>
-      </c>
+      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
           <t>72760.00</t>
@@ -11002,11 +10566,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
+      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
           <t>68448.00</t>
@@ -11100,11 +10660,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
           <t>35910.00</t>
@@ -11202,11 +10758,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
           <t>22500.00</t>
@@ -11300,11 +10852,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
           <t>98000.00</t>
@@ -11398,11 +10946,7 @@
           <t>392 sft</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
           <t>294000.00</t>
@@ -11492,11 +11036,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
           <t>14000.00</t>
@@ -11590,11 +11130,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
           <t>51939.00</t>
@@ -11684,11 +11220,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
           <t>48870.00</t>
@@ -11782,11 +11314,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>22520.00</t>
@@ -11880,11 +11408,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
           <t>24900.00</t>
@@ -11978,11 +11502,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
           <t>48485.00</t>
@@ -12072,11 +11592,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
           <t>33172.00</t>
@@ -12170,11 +11686,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>87706.17</t>
@@ -12268,11 +11780,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>106113.64</t>
@@ -12366,11 +11874,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
           <t>44394.48</t>
@@ -12456,11 +11960,7 @@
           <t>1+1+1+5</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
+      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
           <t>7254.71</t>
@@ -12554,11 +12054,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
           <t>29000.00</t>
@@ -12648,11 +12144,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
           <t>117000.00</t>
@@ -12742,11 +12234,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
           <t>17500.00</t>
@@ -12836,11 +12324,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
           <t>20442.00</t>
@@ -12934,11 +12418,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
           <t>56354.00</t>
@@ -13032,11 +12512,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
           <t>41989.00</t>
@@ -13126,11 +12602,7 @@
           <t>1+1</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
           <t>1989.00</t>
@@ -13224,11 +12696,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
           <t>9075.00</t>
@@ -13322,11 +12790,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
           <t>81400.00</t>
@@ -13420,11 +12884,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
           <t>23980.00</t>
@@ -13510,11 +12970,7 @@
           <t>1+1+1+1+1+1+1</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
+      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
           <t>9900.00</t>
@@ -13608,11 +13064,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
           <t>133335.00</t>
@@ -13706,11 +13158,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
           <t>17814.00</t>
@@ -13804,11 +13252,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
           <t>59116.00</t>
@@ -13898,11 +13342,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
           <t>4500.00</t>
@@ -13992,11 +13432,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
           <t>279005.00</t>
@@ -14090,11 +13526,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
           <t>130387.00</t>
@@ -14188,11 +13620,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
           <t>3296500.00</t>
@@ -14274,11 +13702,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
           <t>30331.00</t>
@@ -14368,11 +13792,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
           <t>161000.00</t>
@@ -14466,11 +13886,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
           <t>82123.02</t>
@@ -14564,11 +13980,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
           <t>32402.28</t>
@@ -14650,11 +14062,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
           <t>21450.00</t>
@@ -14748,11 +14156,7 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+      <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
           <t>19485.00</t>
@@ -14842,11 +14246,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
           <t>4500.00</t>
@@ -14928,11 +14328,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
           <t>10000.00</t>
@@ -15014,11 +14410,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
           <t>10000.00</t>
@@ -15100,11 +14492,7 @@
           <t>932.47 sft</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
           <t>79259.95</t>
@@ -15186,11 +14574,7 @@
           <t>1055.5 sft</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
           <t>26387.50</t>
@@ -15272,11 +14656,7 @@
           <t>14.47 cft</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
           <t>3979.25</t>
@@ -15358,11 +14738,7 @@
           <t>1000 sft</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
           <t>250000.00</t>
@@ -15444,11 +14820,7 @@
           <t>175 sft</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
           <t>38500.00</t>
@@ -15530,11 +14902,7 @@
           <t>2.94 cft</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
           <t>1396.50</t>
@@ -15616,11 +14984,7 @@
           <t>565 sft</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
           <t>124300.00</t>
@@ -15702,11 +15066,7 @@
           <t>36.50 sft</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
           <t>5475.00</t>
@@ -15788,11 +15148,7 @@
           <t>6480 m</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
           <t>328860.00</t>
@@ -15874,11 +15230,7 @@
           <t>70 pcs</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
+      <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
           <t>38150.00</t>
@@ -15960,11 +15312,7 @@
           <t>140 pcs</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>140.00</t>
-        </is>
-      </c>
+      <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
           <t>35000.00</t>
@@ -16046,11 +15394,7 @@
           <t>70pcs</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
+      <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
           <t>38150.00</t>
@@ -16132,11 +15476,7 @@
           <t>70 pcs</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
+      <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
           <t>1190.00</t>
@@ -16218,11 +15558,7 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
           <t>7500.00</t>
@@ -16304,11 +15640,7 @@
           <t>10335 rft</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
           <t>31005.00</t>
@@ -16391,11 +15723,7 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
           <t>7000.00</t>
@@ -16481,11 +15809,7 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
           <t>55000.00</t>
@@ -16567,11 +15891,7 @@
           <t>4 nos</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
           <t>134000.00</t>
@@ -16657,11 +15977,7 @@
           <t>5 nos</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+      <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
           <t>42500.00</t>
@@ -16747,11 +16063,7 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
           <t>147000.00</t>
@@ -16837,11 +16149,7 @@
           <t>6 pcs</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
           <t>210600.00</t>
@@ -16927,11 +16235,7 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
           <t>7180.00</t>
@@ -17013,11 +16317,7 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
           <t>5850.00</t>
@@ -17099,11 +16399,7 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
           <t>9000.00</t>
@@ -17185,11 +16481,7 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
           <t>3800.00</t>
@@ -17271,11 +16563,7 @@
           <t>16 pcs</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
+      <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
           <t>4400.00</t>
@@ -17361,11 +16649,7 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
           <t>18000.00</t>
@@ -17447,11 +16731,7 @@
           <t>71 sft</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
           <t>19170.00</t>
@@ -17533,11 +16813,7 @@
           <t>5 pcs</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+      <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
           <t>1625.00</t>
@@ -17619,11 +16895,7 @@
           <t>5 pcs</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+      <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
           <t>3575.00</t>
@@ -17706,11 +16978,7 @@
           <t>2 pcs</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
           <t>4550.00</t>
@@ -17792,11 +17060,7 @@
           <t>3 pcs</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
           <t>1755.00</t>
@@ -17878,11 +17142,7 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
           <t>7000.00</t>
@@ -17964,11 +17224,7 @@
           <t>6 pcs</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
           <t>420.00</t>
@@ -18050,11 +17306,7 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
           <t>3780.00</t>
@@ -18136,11 +17388,7 @@
           <t>5 pcs</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
+      <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
           <t>125000.00</t>
@@ -18226,11 +17474,7 @@
           <t>3 nos</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
           <t>24900.00</t>
@@ -18316,11 +17560,7 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
           <t>6500.00</t>
@@ -18402,11 +17642,7 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
           <t>3750.00</t>
@@ -18492,11 +17728,7 @@
           <t>6</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
           <t>11100.00</t>
@@ -18582,11 +17814,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
           <t>29900.00</t>
@@ -18672,11 +17900,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
           <t>6250.00</t>
@@ -18758,11 +17982,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
           <t>12150.00</t>
@@ -18844,11 +18064,7 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
           <t>7500.00</t>
@@ -18934,11 +18150,7 @@
           <t>1750 rft</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
           <t>2625.00</t>
@@ -19024,11 +18236,7 @@
           <t>2100 rft</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
           <t>18375.00</t>
@@ -19114,11 +18322,7 @@
           <t>280 rft</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
           <t>3360.00</t>
@@ -19204,11 +18408,7 @@
           <t>1375 rft</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
           <t>2062.50</t>
@@ -19294,11 +18494,7 @@
           <t>1500 rft</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
           <t>13125.00</t>
@@ -19384,11 +18580,7 @@
           <t>175 rft</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
           <t>2100.00</t>
@@ -19474,11 +18666,7 @@
           <t>35 coil</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
+      <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
           <t>86100.00</t>
@@ -19564,11 +18752,7 @@
           <t>50 coil</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+      <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
           <t>196500.00</t>
@@ -19654,11 +18838,7 @@
           <t>13 coil</t>
         </is>
       </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
+      <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
           <t>1560.00</t>
@@ -19744,11 +18924,7 @@
           <t>4 coil</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
           <t>22340.00</t>
@@ -19834,11 +19010,7 @@
           <t>22 coil</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
+      <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr">
         <is>
           <t>52360.00</t>
@@ -19924,11 +19096,7 @@
           <t>25 each</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
+      <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr">
         <is>
           <t>11875.00</t>
@@ -20014,11 +19182,7 @@
           <t>33 each</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
+      <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr">
         <is>
           <t>15675.00</t>
@@ -20104,11 +19268,7 @@
           <t>10 each</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
+      <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
           <t>3000.00</t>
@@ -20194,11 +19354,7 @@
           <t>18 each</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
+      <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
           <t>6030.00</t>
@@ -20284,11 +19440,7 @@
           <t>22 each</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
+      <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
           <t>8250.00</t>
@@ -20374,11 +19526,7 @@
           <t>6 each</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr">
         <is>
           <t>1950.00</t>
@@ -20464,11 +19612,7 @@
           <t>16 pcs</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
+      <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
           <t>23200.00</t>
@@ -20554,11 +19698,7 @@
           <t>28 pcs</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>28.00</t>
-        </is>
-      </c>
+      <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
           <t>3500.00</t>
@@ -20644,11 +19784,7 @@
           <t>175 pcs</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>175.00</t>
-        </is>
-      </c>
+      <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
           <t>78750.00</t>
@@ -20738,11 +19874,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
           <t>175000.00</t>
@@ -20832,11 +19964,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
           <t>97500.00</t>
@@ -20922,11 +20050,7 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
           <t>30500.00</t>
@@ -21012,11 +20136,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
           <t>15000.00</t>
@@ -21098,11 +20218,7 @@
           <t>95 rft</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
           <t>12825.00</t>
@@ -21184,11 +20300,7 @@
           <t>135 rft</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
           <t>43875.00</t>
@@ -21274,11 +20386,7 @@
           <t>340 rft</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
           <t>30600.00</t>
@@ -21364,11 +20472,7 @@
           <t>85 rft</t>
         </is>
       </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
           <t>4143.75</t>
@@ -21454,11 +20558,7 @@
           <t>155 nos</t>
         </is>
       </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>155.00</t>
-        </is>
-      </c>
+      <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
           <t>81375.00</t>
@@ -21544,11 +20644,7 @@
           <t>20 nos</t>
         </is>
       </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
+      <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
           <t>107000.00</t>
@@ -21630,11 +20726,7 @@
           <t>13 nos</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
+      <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
           <t>16575.00</t>
@@ -21716,11 +20808,7 @@
           <t>8 nos</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
+      <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
           <t>22000.00</t>
@@ -21802,11 +20890,7 @@
           <t>4 nos</t>
         </is>
       </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
           <t>14700.00</t>
@@ -21888,11 +20972,7 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
           <t>715.00</t>
@@ -21974,11 +21054,7 @@
           <t>41 nos</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr">
-        <is>
-          <t>41.00</t>
-        </is>
-      </c>
+      <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
           <t>3895.00</t>
@@ -22060,11 +21136,7 @@
           <t>18 nos</t>
         </is>
       </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
+      <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
           <t>57150.00</t>
@@ -22146,11 +21218,7 @@
           <t>10 nos</t>
         </is>
       </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
+      <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
           <t>12750.00</t>
@@ -22236,11 +21304,7 @@
           <t>6 nos</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
           <t>90000.00</t>
@@ -22326,11 +21390,7 @@
           <t>3 nos</t>
         </is>
       </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
           <t>34500.00</t>
@@ -22412,11 +21472,7 @@
           <t>14365 sft</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
           <t>226248.75</t>
@@ -22498,11 +21554,7 @@
           <t>945 sft</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
           <t>42525.00</t>
@@ -22584,11 +21636,7 @@
           <t>225 sft</t>
         </is>
       </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
           <t>29250.00</t>
@@ -22670,11 +21718,7 @@
           <t>926 sft</t>
         </is>
       </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
           <t>55560.00</t>
@@ -22756,11 +21800,7 @@
           <t>605 sft</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
           <t>22385.00</t>
@@ -22842,11 +21882,7 @@
           <t>1923.37 sft</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
           <t>57701.10</t>
@@ -22928,11 +21964,7 @@
           <t>555.18 sft</t>
         </is>
       </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
           <t>235951.50</t>
@@ -23014,11 +22046,7 @@
           <t>333.66 sft</t>
         </is>
       </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
           <t>141805.50</t>
@@ -23100,11 +22128,7 @@
           <t>536.46 sft</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
           <t>211901.70</t>
@@ -23186,11 +22210,7 @@
           <t>469.92 sft</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
           <t>103382.40</t>
@@ -23272,11 +22292,7 @@
           <t>1287.08 sft</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
           <t>270286.80</t>
@@ -23358,11 +22374,7 @@
           <t>138 rft</t>
         </is>
       </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
           <t>58650.00</t>
@@ -23444,11 +22456,7 @@
           <t>8 rft</t>
         </is>
       </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
           <t>3000.00</t>
@@ -23530,11 +22538,7 @@
           <t>783.35 sft</t>
         </is>
       </c>
-      <c r="M250" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
           <t>115152.45</t>
@@ -23616,11 +22620,7 @@
           <t>82.50 sft</t>
         </is>
       </c>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr">
         <is>
           <t>52387.50</t>
@@ -23702,11 +22702,7 @@
           <t>380 rft</t>
         </is>
       </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
           <t>28500.00</t>
@@ -23788,11 +22784,7 @@
           <t>628 rft</t>
         </is>
       </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
           <t>69080.00</t>
@@ -23874,11 +22866,7 @@
           <t>626.68 Sft</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr">
         <is>
           <t>708513.00</t>
@@ -23960,11 +22948,7 @@
           <t>6 NOS</t>
         </is>
       </c>
-      <c r="M255" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
           <t>480000.00</t>
@@ -24046,11 +23030,7 @@
           <t>3617 SFT</t>
         </is>
       </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
           <t>596805.00</t>
@@ -24132,11 +23112,7 @@
           <t>261.29 SFT</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr">
         <is>
           <t>43112.85</t>
@@ -24218,11 +23194,7 @@
           <t>7 NOS</t>
         </is>
       </c>
-      <c r="M258" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
+      <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
           <t>109200.00</t>
@@ -24304,11 +23276,7 @@
           <t>7 pair</t>
         </is>
       </c>
-      <c r="M259" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
+      <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
           <t>39375.00</t>
@@ -24390,11 +23358,7 @@
           <t>9 pcs</t>
         </is>
       </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
+      <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr">
         <is>
           <t>110250.00</t>
@@ -24476,11 +23440,7 @@
           <t>1106.90 sft</t>
         </is>
       </c>
-      <c r="M261" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr">
         <is>
           <t>215845.50</t>
@@ -24562,11 +23522,7 @@
           <t>485.17 sft</t>
         </is>
       </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr">
         <is>
           <t>36387.75</t>
@@ -24648,11 +23604,7 @@
           <t>304.24 sft</t>
         </is>
       </c>
-      <c r="M263" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr">
         <is>
           <t>86708.40</t>
@@ -24734,11 +23686,7 @@
           <t>1520.79 sft</t>
         </is>
       </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M264" t="inlineStr"/>
       <c r="N264" t="inlineStr">
         <is>
           <t>250930.35</t>
@@ -24820,11 +23768,7 @@
           <t>355 sft</t>
         </is>
       </c>
-      <c r="M265" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
           <t>37275.00</t>
@@ -24906,11 +23850,7 @@
           <t>791.85 sft</t>
         </is>
       </c>
-      <c r="M266" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr">
         <is>
           <t>31674.00</t>
@@ -24992,11 +23932,7 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr">
         <is>
           <t>21500.00</t>
@@ -25078,11 +24014,7 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M268" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr">
         <is>
           <t>145000.00</t>
@@ -25168,11 +24100,7 @@
           <t>226.67 sft</t>
         </is>
       </c>
-      <c r="M269" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr">
         <is>
           <t>36267.20</t>
@@ -25254,11 +24182,7 @@
           <t>128 sft</t>
         </is>
       </c>
-      <c r="M270" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr">
         <is>
           <t>83200.00</t>
@@ -25340,11 +24264,7 @@
           <t>115 sft</t>
         </is>
       </c>
-      <c r="M271" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr">
         <is>
           <t>74750.00</t>
@@ -25426,11 +24346,7 @@
           <t>296 sft</t>
         </is>
       </c>
-      <c r="M272" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr">
         <is>
           <t>140600.00</t>
@@ -25512,11 +24428,7 @@
           <t>357.83 sft</t>
         </is>
       </c>
-      <c r="M273" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
           <t>134186.25</t>
@@ -25598,11 +24510,7 @@
           <t>12 sft</t>
         </is>
       </c>
-      <c r="M274" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr">
         <is>
           <t>3900.00</t>
@@ -25684,11 +24592,7 @@
           <t>50 nos</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+      <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr">
         <is>
           <t>1000000.00</t>
@@ -25770,11 +24674,7 @@
           <t>26 nos</t>
         </is>
       </c>
-      <c r="M276" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+      <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr">
         <is>
           <t>117000.00</t>
@@ -25856,11 +24756,7 @@
           <t>3 set</t>
         </is>
       </c>
-      <c r="M277" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M277" t="inlineStr"/>
       <c r="N277" t="inlineStr">
         <is>
           <t>165000.00</t>
@@ -25942,11 +24838,7 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr">
         <is>
           <t>47500.00</t>
@@ -26028,11 +24920,7 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr">
         <is>
           <t>73500.00</t>
@@ -26114,11 +25002,7 @@
           <t>4 nos</t>
         </is>
       </c>
-      <c r="M280" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr">
         <is>
           <t>50800.00</t>
@@ -26200,11 +25084,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="M281" t="inlineStr"/>
       <c r="N281" t="inlineStr">
         <is>
           <t>47000.00</t>
@@ -26286,11 +25166,7 @@
           <t>12 nos</t>
         </is>
       </c>
-      <c r="M282" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
+      <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr">
         <is>
           <t>96000.00</t>
@@ -26372,11 +25248,7 @@
           <t>192 sft</t>
         </is>
       </c>
-      <c r="M283" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M283" t="inlineStr"/>
       <c r="N283" t="inlineStr">
         <is>
           <t>220800.00</t>
@@ -26462,11 +25334,7 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M284" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr">
         <is>
           <t>65000.00</t>
@@ -26552,11 +25420,7 @@
           <t>6 PCS</t>
         </is>
       </c>
-      <c r="M285" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
+      <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr">
         <is>
           <t>87000.00</t>
@@ -26642,11 +25506,7 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M286" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr">
         <is>
           <t>140000.00</t>
@@ -26728,11 +25588,7 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M287" t="inlineStr"/>
       <c r="N287" t="inlineStr">
         <is>
           <t>95000.00</t>
@@ -26818,11 +25674,7 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr">
         <is>
           <t>60000.00</t>
@@ -26908,11 +25760,7 @@
           <t>50 pcs</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+      <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr">
         <is>
           <t>422500.00</t>
@@ -26998,11 +25846,7 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M290" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M290" t="inlineStr"/>
       <c r="N290" t="inlineStr">
         <is>
           <t>8450.00</t>
@@ -27088,11 +25932,7 @@
           <t>8 pcs</t>
         </is>
       </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
+      <c r="M291" t="inlineStr"/>
       <c r="N291" t="inlineStr">
         <is>
           <t>60000.00</t>
@@ -27178,11 +26018,7 @@
           <t>36 sft</t>
         </is>
       </c>
-      <c r="M292" t="inlineStr">
-        <is>
-          <t>36.00</t>
-        </is>
-      </c>
+      <c r="M292" t="inlineStr"/>
       <c r="N292" t="inlineStr">
         <is>
           <t>23400.00</t>
@@ -27268,11 +26104,7 @@
           <t>182.20 sft</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr">
         <is>
           <t>118430.00</t>
@@ -27358,11 +26190,7 @@
           <t>13.75 SFT</t>
         </is>
       </c>
-      <c r="M294" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M294" t="inlineStr"/>
       <c r="N294" t="inlineStr">
         <is>
           <t>8937.50</t>
@@ -27448,11 +26276,7 @@
           <t>50 PCS</t>
         </is>
       </c>
-      <c r="M295" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+      <c r="M295" t="inlineStr"/>
       <c r="N295" t="inlineStr">
         <is>
           <t>200000.00</t>
@@ -27534,11 +26358,7 @@
           <t>4008 SFT</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr">
         <is>
           <t>1182360.00</t>
@@ -27620,11 +26440,7 @@
           <t>8</t>
         </is>
       </c>
-      <c r="M297" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
+      <c r="M297" t="inlineStr"/>
       <c r="N297" t="inlineStr">
         <is>
           <t>120000.00</t>
@@ -27706,11 +26522,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr">
         <is>
           <t>78800.00</t>
@@ -27792,11 +26604,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
+      <c r="M299" t="inlineStr"/>
       <c r="N299" t="inlineStr">
         <is>
           <t>50100.00</t>
@@ -27878,11 +26686,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr">
         <is>
           <t>188000.00</t>
@@ -27964,11 +26768,7 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M301" t="inlineStr"/>
       <c r="N301" t="inlineStr">
         <is>
           <t>45500.00</t>
@@ -28022,11 +26822,7 @@
         </is>
       </c>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
+      <c r="M302" t="inlineStr"/>
       <c r="N302" t="inlineStr">
         <is>
           <t>13225574.95</t>

--- a/afar_project/csv_path/sample/asset_registerxxx.xlsx
+++ b/afar_project/csv_path/sample/asset_registerxxx.xlsx
@@ -596,7 +596,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>56862.00</t>
@@ -694,7 +698,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>22253.00</t>
@@ -788,7 +796,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>10810.00</t>
@@ -882,7 +894,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>21481.00</t>
@@ -976,7 +992,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>11653.00</t>
@@ -1070,7 +1090,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>32151.00</t>
@@ -1164,7 +1188,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>24570.00</t>
@@ -1246,7 +1274,11 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>47855.00</t>
@@ -1332,7 +1364,11 @@
           <t>270 ft</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>24830.00</t>
@@ -1418,7 +1454,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>105164.00</t>
@@ -1504,7 +1544,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>55000.00</t>
@@ -1586,7 +1630,11 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>50900.00</t>
@@ -1680,7 +1728,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>56900.00</t>
@@ -1770,7 +1822,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>38400.00</t>
@@ -1868,7 +1924,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>16900.00</t>
@@ -1954,7 +2014,11 @@
           <t>120 ft</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>19500.00</t>
@@ -2048,7 +2112,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>30145.79</t>
@@ -2146,7 +2214,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>18900.00</t>
@@ -2244,7 +2316,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>13500.00</t>
@@ -2338,7 +2414,11 @@
           <t>(1+1+1+1)</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>30450.00</t>
@@ -2420,7 +2500,11 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>4300.00</t>
@@ -2506,7 +2590,11 @@
           <t>5 pcs</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>28288.00</t>
@@ -2592,7 +2680,11 @@
           <t>3+3+6+1+1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>20199.00</t>
@@ -2682,7 +2774,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>55106.00</t>
@@ -2772,7 +2868,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>11700.00</t>
@@ -2862,7 +2962,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>25920.00</t>
@@ -2952,7 +3056,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>255360.00</t>
@@ -3046,7 +3154,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>56300.00</t>
@@ -3144,7 +3256,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>240000.00</t>
@@ -3238,7 +3354,11 @@
           <t>(2+1)</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>48000.00</t>
@@ -3328,7 +3448,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>28800.00</t>
@@ -3414,7 +3538,11 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>362600.00</t>
@@ -3500,7 +3628,11 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>13375.00</t>
@@ -3590,7 +3722,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
           <t>12300.00</t>
@@ -3684,7 +3820,11 @@
           <t>(2+2)</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
           <t>97300.00</t>
@@ -3770,7 +3910,11 @@
           <t>9 pcs</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>53770.00</t>
@@ -3864,7 +4008,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>106500.00</t>
@@ -3962,7 +4110,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>196000.00</t>
@@ -4056,7 +4208,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
           <t>15000.00</t>
@@ -4150,7 +4306,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
           <t>6375.00</t>
@@ -4236,7 +4396,11 @@
           <t>296 SFT</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>16408.00</t>
@@ -4326,7 +4490,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>12900.00</t>
@@ -4424,7 +4592,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>11723.36</t>
@@ -4514,7 +4686,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>2930.84</t>
@@ -4600,7 +4776,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>10400.00</t>
@@ -4682,7 +4862,11 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>80250.00</t>
@@ -4776,7 +4960,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
           <t>48215.00</t>
@@ -4874,7 +5062,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
           <t>54124.00</t>
@@ -4972,7 +5164,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
           <t>97240.00</t>
@@ -5066,7 +5262,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
           <t>167000.00</t>
@@ -5164,7 +5364,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>385050.00</t>
@@ -5258,7 +5462,11 @@
           <t>2+4</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
           <t>119900.00</t>
@@ -5352,7 +5560,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>57021.00</t>
@@ -5446,7 +5658,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
           <t>13789.80</t>
@@ -5540,7 +5756,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>6550.00</t>
@@ -5638,7 +5858,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>27379.00</t>
@@ -5732,7 +5956,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
           <t>57400.00</t>
@@ -5826,7 +6054,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
           <t>36220.00</t>
@@ -5920,7 +6152,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
           <t>101042.00</t>
@@ -6010,7 +6246,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
           <t>83200.00</t>
@@ -6096,7 +6336,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>146100.00</t>
@@ -6190,7 +6434,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
           <t>18368.00</t>
@@ -6280,7 +6528,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>17072.14</t>
@@ -6374,7 +6626,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>90000.00</t>
@@ -6472,7 +6728,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
           <t>197600.00</t>
@@ -6558,7 +6818,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>57700.00</t>
@@ -6648,7 +6912,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>55000.00</t>
@@ -6738,7 +7006,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
           <t>25000.00</t>
@@ -6828,7 +7100,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
           <t>46980.00</t>
@@ -6922,7 +7198,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>7330.00</t>
@@ -7008,7 +7288,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
           <t>46000.00</t>
@@ -7102,7 +7386,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
           <t>9500.00</t>
@@ -7192,7 +7480,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
           <t>16800.00</t>
@@ -7286,7 +7578,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
           <t>12750.00</t>
@@ -7380,7 +7676,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
           <t>31500.00</t>
@@ -7466,7 +7766,11 @@
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>20662.00</t>
@@ -7560,7 +7864,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
           <t>16963.00</t>
@@ -7650,7 +7958,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
           <t>12000.00</t>
@@ -7736,7 +8048,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>5000.00</t>
@@ -7830,7 +8146,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
           <t>63665.00</t>
@@ -7920,7 +8240,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
           <t>3745.00</t>
@@ -8014,7 +8338,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
           <t>18725.00</t>
@@ -8108,7 +8436,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
           <t>28890.00</t>
@@ -8194,7 +8526,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
           <t>39380.00</t>
@@ -8288,7 +8624,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
           <t>15194.00</t>
@@ -8382,7 +8722,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
           <t>5350.00</t>
@@ -8468,7 +8812,11 @@
           <t>50+100</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
           <t>62500.00</t>
@@ -8554,7 +8902,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
           <t>12305.00</t>
@@ -8648,7 +9000,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
           <t>172056.00</t>
@@ -8738,7 +9094,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
           <t>5564.00</t>
@@ -8828,7 +9188,11 @@
           <t>707.2 sft</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
           <t>311168.00</t>
@@ -8922,7 +9286,11 @@
           <t>252  sft</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
           <t>60480.00</t>
@@ -9016,7 +9384,11 @@
           <t>14</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
           <t>14000.00</t>
@@ -9114,7 +9486,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
           <t>337568.00</t>
@@ -9204,7 +9580,11 @@
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
           <t>35000.00</t>
@@ -9290,7 +9670,11 @@
           <t>(3+1+2+1+1)</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
           <t>36700.00</t>
@@ -9380,7 +9764,11 @@
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
           <t>214136.00</t>
@@ -9474,7 +9862,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
           <t>9276465.00</t>
@@ -9568,7 +9960,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
           <t>9046900.00</t>
@@ -9654,7 +10050,11 @@
           <t>50+50+10</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>110.00</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>42801.00</t>
@@ -9740,7 +10140,11 @@
           <t>(18+12+3)</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr">
         <is>
           <t>20100.00</t>
@@ -9826,7 +10230,11 @@
           <t>36</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr">
         <is>
           <t>4320.00</t>
@@ -9920,7 +10328,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr">
         <is>
           <t>186384.00</t>
@@ -10006,7 +10418,11 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr">
         <is>
           <t>9900.00</t>
@@ -10100,7 +10516,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N106" t="inlineStr">
         <is>
           <t>57800.00</t>
@@ -10194,7 +10614,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr">
         <is>
           <t>374075.00</t>
@@ -10292,7 +10716,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr">
         <is>
           <t>182937.00</t>
@@ -10386,7 +10814,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr">
         <is>
           <t>9146.00</t>
@@ -10472,7 +10904,11 @@
           <t>200 pcs</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr">
         <is>
           <t>72760.00</t>
@@ -10566,7 +11002,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr">
         <is>
           <t>68448.00</t>
@@ -10660,7 +11100,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr">
         <is>
           <t>35910.00</t>
@@ -10758,7 +11202,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N113" t="inlineStr">
         <is>
           <t>22500.00</t>
@@ -10852,7 +11300,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr">
         <is>
           <t>98000.00</t>
@@ -10946,7 +11398,11 @@
           <t>392 sft</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr">
         <is>
           <t>294000.00</t>
@@ -11036,7 +11492,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr">
         <is>
           <t>14000.00</t>
@@ -11130,7 +11590,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr">
         <is>
           <t>51939.00</t>
@@ -11220,7 +11684,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr">
         <is>
           <t>48870.00</t>
@@ -11314,7 +11782,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr">
         <is>
           <t>22520.00</t>
@@ -11408,7 +11880,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr">
         <is>
           <t>24900.00</t>
@@ -11502,7 +11978,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr">
         <is>
           <t>48485.00</t>
@@ -11592,7 +12072,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr">
         <is>
           <t>33172.00</t>
@@ -11686,7 +12170,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr">
         <is>
           <t>87706.17</t>
@@ -11780,7 +12268,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N124" t="inlineStr">
         <is>
           <t>106113.64</t>
@@ -11874,7 +12366,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr">
         <is>
           <t>44394.48</t>
@@ -11960,7 +12456,11 @@
           <t>1+1+1+5</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr">
         <is>
           <t>7254.71</t>
@@ -12054,7 +12554,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr">
         <is>
           <t>29000.00</t>
@@ -12144,7 +12648,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N128" t="inlineStr">
         <is>
           <t>117000.00</t>
@@ -12234,7 +12742,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr">
         <is>
           <t>17500.00</t>
@@ -12324,7 +12836,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr">
         <is>
           <t>20442.00</t>
@@ -12418,7 +12934,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr">
         <is>
           <t>56354.00</t>
@@ -12512,7 +13032,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr">
         <is>
           <t>41989.00</t>
@@ -12602,7 +13126,11 @@
           <t>1+1</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr">
         <is>
           <t>1989.00</t>
@@ -12696,7 +13224,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr">
         <is>
           <t>9075.00</t>
@@ -12790,7 +13322,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr">
         <is>
           <t>81400.00</t>
@@ -12884,7 +13420,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr">
         <is>
           <t>23980.00</t>
@@ -12970,7 +13510,11 @@
           <t>1+1+1+1+1+1+1</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr">
         <is>
           <t>9900.00</t>
@@ -13064,7 +13608,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr">
         <is>
           <t>133335.00</t>
@@ -13158,7 +13706,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr">
         <is>
           <t>17814.00</t>
@@ -13252,7 +13804,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr">
         <is>
           <t>59116.00</t>
@@ -13342,7 +13898,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr">
         <is>
           <t>4500.00</t>
@@ -13432,7 +13992,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr">
         <is>
           <t>279005.00</t>
@@ -13526,7 +14090,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr">
         <is>
           <t>130387.00</t>
@@ -13620,7 +14188,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr">
         <is>
           <t>3296500.00</t>
@@ -13702,7 +14274,11 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr">
         <is>
           <t>30331.00</t>
@@ -13792,7 +14368,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr">
         <is>
           <t>161000.00</t>
@@ -13886,7 +14466,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr">
         <is>
           <t>82123.02</t>
@@ -13980,7 +14564,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr">
         <is>
           <t>32402.28</t>
@@ -14062,7 +14650,11 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr">
         <is>
           <t>21450.00</t>
@@ -14156,7 +14748,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr">
         <is>
           <t>19485.00</t>
@@ -14246,7 +14842,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr">
         <is>
           <t>4500.00</t>
@@ -14328,7 +14928,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr">
         <is>
           <t>10000.00</t>
@@ -14410,7 +15014,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr">
         <is>
           <t>10000.00</t>
@@ -14492,7 +15100,11 @@
           <t>932.47 sft</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr">
         <is>
           <t>79259.95</t>
@@ -14574,7 +15186,11 @@
           <t>1055.5 sft</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr">
         <is>
           <t>26387.50</t>
@@ -14656,7 +15272,11 @@
           <t>14.47 cft</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N156" t="inlineStr">
         <is>
           <t>3979.25</t>
@@ -14738,7 +15358,11 @@
           <t>1000 sft</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr">
         <is>
           <t>250000.00</t>
@@ -14820,7 +15444,11 @@
           <t>175 sft</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr">
         <is>
           <t>38500.00</t>
@@ -14902,7 +15530,11 @@
           <t>2.94 cft</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr">
         <is>
           <t>1396.50</t>
@@ -14984,7 +15616,11 @@
           <t>565 sft</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr">
         <is>
           <t>124300.00</t>
@@ -15066,7 +15702,11 @@
           <t>36.50 sft</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr">
         <is>
           <t>5475.00</t>
@@ -15148,7 +15788,11 @@
           <t>6480 m</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr">
         <is>
           <t>328860.00</t>
@@ -15230,7 +15874,11 @@
           <t>70 pcs</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr">
         <is>
           <t>38150.00</t>
@@ -15312,7 +15960,11 @@
           <t>140 pcs</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr">
         <is>
           <t>35000.00</t>
@@ -15394,7 +16046,11 @@
           <t>70pcs</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr">
         <is>
           <t>38150.00</t>
@@ -15476,7 +16132,11 @@
           <t>70 pcs</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr">
         <is>
           <t>1190.00</t>
@@ -15558,7 +16218,11 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N167" t="inlineStr">
         <is>
           <t>7500.00</t>
@@ -15640,7 +16304,11 @@
           <t>10335 rft</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr">
         <is>
           <t>31005.00</t>
@@ -15723,7 +16391,11 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr">
         <is>
           <t>7000.00</t>
@@ -15809,7 +16481,11 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr">
         <is>
           <t>55000.00</t>
@@ -15891,7 +16567,11 @@
           <t>4 nos</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr">
         <is>
           <t>134000.00</t>
@@ -15977,7 +16657,11 @@
           <t>5 nos</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="N172" t="inlineStr">
         <is>
           <t>42500.00</t>
@@ -16063,7 +16747,11 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N173" t="inlineStr">
         <is>
           <t>147000.00</t>
@@ -16149,7 +16837,11 @@
           <t>6 pcs</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr">
         <is>
           <t>210600.00</t>
@@ -16235,7 +16927,11 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N175" t="inlineStr">
         <is>
           <t>7180.00</t>
@@ -16317,7 +17013,11 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N176" t="inlineStr">
         <is>
           <t>5850.00</t>
@@ -16399,7 +17099,11 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N177" t="inlineStr">
         <is>
           <t>9000.00</t>
@@ -16481,7 +17185,11 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr">
         <is>
           <t>3800.00</t>
@@ -16563,7 +17271,11 @@
           <t>16 pcs</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
       <c r="N179" t="inlineStr">
         <is>
           <t>4400.00</t>
@@ -16649,7 +17361,11 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N180" t="inlineStr">
         <is>
           <t>18000.00</t>
@@ -16731,7 +17447,11 @@
           <t>71 sft</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N181" t="inlineStr">
         <is>
           <t>19170.00</t>
@@ -16813,7 +17533,11 @@
           <t>5 pcs</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr">
         <is>
           <t>1625.00</t>
@@ -16895,7 +17619,11 @@
           <t>5 pcs</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr">
         <is>
           <t>3575.00</t>
@@ -16978,7 +17706,11 @@
           <t>2 pcs</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N184" t="inlineStr">
         <is>
           <t>4550.00</t>
@@ -17060,7 +17792,11 @@
           <t>3 pcs</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr">
         <is>
           <t>1755.00</t>
@@ -17142,7 +17878,11 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N186" t="inlineStr">
         <is>
           <t>7000.00</t>
@@ -17224,7 +17964,11 @@
           <t>6 pcs</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr">
         <is>
           <t>420.00</t>
@@ -17306,7 +18050,11 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N188" t="inlineStr">
         <is>
           <t>3780.00</t>
@@ -17388,7 +18136,11 @@
           <t>5 pcs</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
       <c r="N189" t="inlineStr">
         <is>
           <t>125000.00</t>
@@ -17474,7 +18226,11 @@
           <t>3 nos</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N190" t="inlineStr">
         <is>
           <t>24900.00</t>
@@ -17560,7 +18316,11 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr">
         <is>
           <t>6500.00</t>
@@ -17642,7 +18402,11 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N192" t="inlineStr">
         <is>
           <t>3750.00</t>
@@ -17728,7 +18492,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N193" t="inlineStr">
         <is>
           <t>11100.00</t>
@@ -17814,7 +18582,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N194" t="inlineStr">
         <is>
           <t>29900.00</t>
@@ -17900,7 +18672,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr">
         <is>
           <t>6250.00</t>
@@ -17982,7 +18758,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N196" t="inlineStr">
         <is>
           <t>12150.00</t>
@@ -18064,7 +18844,11 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr">
         <is>
           <t>7500.00</t>
@@ -18150,7 +18934,11 @@
           <t>1750 rft</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N198" t="inlineStr">
         <is>
           <t>2625.00</t>
@@ -18236,7 +19024,11 @@
           <t>2100 rft</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N199" t="inlineStr">
         <is>
           <t>18375.00</t>
@@ -18322,7 +19114,11 @@
           <t>280 rft</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N200" t="inlineStr">
         <is>
           <t>3360.00</t>
@@ -18408,7 +19204,11 @@
           <t>1375 rft</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N201" t="inlineStr">
         <is>
           <t>2062.50</t>
@@ -18494,7 +19294,11 @@
           <t>1500 rft</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N202" t="inlineStr">
         <is>
           <t>13125.00</t>
@@ -18580,7 +19384,11 @@
           <t>175 rft</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N203" t="inlineStr">
         <is>
           <t>2100.00</t>
@@ -18666,7 +19474,11 @@
           <t>35 coil</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
       <c r="N204" t="inlineStr">
         <is>
           <t>86100.00</t>
@@ -18752,7 +19564,11 @@
           <t>50 coil</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="N205" t="inlineStr">
         <is>
           <t>196500.00</t>
@@ -18838,7 +19654,11 @@
           <t>13 coil</t>
         </is>
       </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
       <c r="N206" t="inlineStr">
         <is>
           <t>1560.00</t>
@@ -18924,7 +19744,11 @@
           <t>4 coil</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N207" t="inlineStr">
         <is>
           <t>22340.00</t>
@@ -19010,7 +19834,11 @@
           <t>22 coil</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
       <c r="N208" t="inlineStr">
         <is>
           <t>52360.00</t>
@@ -19096,7 +19924,11 @@
           <t>25 each</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
       <c r="N209" t="inlineStr">
         <is>
           <t>11875.00</t>
@@ -19182,7 +20014,11 @@
           <t>33 each</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr">
         <is>
           <t>15675.00</t>
@@ -19268,7 +20104,11 @@
           <t>10 each</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
       <c r="N211" t="inlineStr">
         <is>
           <t>3000.00</t>
@@ -19354,7 +20194,11 @@
           <t>18 each</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
       <c r="N212" t="inlineStr">
         <is>
           <t>6030.00</t>
@@ -19440,7 +20284,11 @@
           <t>22 each</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
       <c r="N213" t="inlineStr">
         <is>
           <t>8250.00</t>
@@ -19526,7 +20374,11 @@
           <t>6 each</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N214" t="inlineStr">
         <is>
           <t>1950.00</t>
@@ -19612,7 +20464,11 @@
           <t>16 pcs</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
       <c r="N215" t="inlineStr">
         <is>
           <t>23200.00</t>
@@ -19698,7 +20554,11 @@
           <t>28 pcs</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr">
         <is>
           <t>3500.00</t>
@@ -19784,7 +20644,11 @@
           <t>175 pcs</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>175.00</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr">
         <is>
           <t>78750.00</t>
@@ -19874,7 +20738,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N218" t="inlineStr">
         <is>
           <t>175000.00</t>
@@ -19964,7 +20832,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N219" t="inlineStr">
         <is>
           <t>97500.00</t>
@@ -20050,7 +20922,11 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr">
         <is>
           <t>30500.00</t>
@@ -20136,7 +21012,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr">
         <is>
           <t>15000.00</t>
@@ -20218,7 +21098,11 @@
           <t>95 rft</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr">
         <is>
           <t>12825.00</t>
@@ -20300,7 +21184,11 @@
           <t>135 rft</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr">
         <is>
           <t>43875.00</t>
@@ -20386,7 +21274,11 @@
           <t>340 rft</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N224" t="inlineStr">
         <is>
           <t>30600.00</t>
@@ -20472,7 +21364,11 @@
           <t>85 rft</t>
         </is>
       </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N225" t="inlineStr">
         <is>
           <t>4143.75</t>
@@ -20558,7 +21454,11 @@
           <t>155 nos</t>
         </is>
       </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>155.00</t>
+        </is>
+      </c>
       <c r="N226" t="inlineStr">
         <is>
           <t>81375.00</t>
@@ -20644,7 +21544,11 @@
           <t>20 nos</t>
         </is>
       </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
       <c r="N227" t="inlineStr">
         <is>
           <t>107000.00</t>
@@ -20726,7 +21630,11 @@
           <t>13 nos</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr">
         <is>
           <t>16575.00</t>
@@ -20808,7 +21716,11 @@
           <t>8 nos</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
       <c r="N229" t="inlineStr">
         <is>
           <t>22000.00</t>
@@ -20890,7 +21802,11 @@
           <t>4 nos</t>
         </is>
       </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N230" t="inlineStr">
         <is>
           <t>14700.00</t>
@@ -20972,7 +21888,11 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N231" t="inlineStr">
         <is>
           <t>715.00</t>
@@ -21054,7 +21974,11 @@
           <t>41 nos</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr">
         <is>
           <t>3895.00</t>
@@ -21136,7 +22060,11 @@
           <t>18 nos</t>
         </is>
       </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
       <c r="N233" t="inlineStr">
         <is>
           <t>57150.00</t>
@@ -21218,7 +22146,11 @@
           <t>10 nos</t>
         </is>
       </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
       <c r="N234" t="inlineStr">
         <is>
           <t>12750.00</t>
@@ -21304,7 +22236,11 @@
           <t>6 nos</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N235" t="inlineStr">
         <is>
           <t>90000.00</t>
@@ -21390,7 +22326,11 @@
           <t>3 nos</t>
         </is>
       </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N236" t="inlineStr">
         <is>
           <t>34500.00</t>
@@ -21472,7 +22412,11 @@
           <t>14365 sft</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N237" t="inlineStr">
         <is>
           <t>226248.75</t>
@@ -21554,7 +22498,11 @@
           <t>945 sft</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr">
         <is>
           <t>42525.00</t>
@@ -21636,7 +22584,11 @@
           <t>225 sft</t>
         </is>
       </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N239" t="inlineStr">
         <is>
           <t>29250.00</t>
@@ -21718,7 +22670,11 @@
           <t>926 sft</t>
         </is>
       </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N240" t="inlineStr">
         <is>
           <t>55560.00</t>
@@ -21800,7 +22756,11 @@
           <t>605 sft</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N241" t="inlineStr">
         <is>
           <t>22385.00</t>
@@ -21882,7 +22842,11 @@
           <t>1923.37 sft</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N242" t="inlineStr">
         <is>
           <t>57701.10</t>
@@ -21964,7 +22928,11 @@
           <t>555.18 sft</t>
         </is>
       </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N243" t="inlineStr">
         <is>
           <t>235951.50</t>
@@ -22046,7 +23014,11 @@
           <t>333.66 sft</t>
         </is>
       </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N244" t="inlineStr">
         <is>
           <t>141805.50</t>
@@ -22128,7 +23100,11 @@
           <t>536.46 sft</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr">
         <is>
           <t>211901.70</t>
@@ -22210,7 +23186,11 @@
           <t>469.92 sft</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr">
         <is>
           <t>103382.40</t>
@@ -22292,7 +23272,11 @@
           <t>1287.08 sft</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N247" t="inlineStr">
         <is>
           <t>270286.80</t>
@@ -22374,7 +23358,11 @@
           <t>138 rft</t>
         </is>
       </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N248" t="inlineStr">
         <is>
           <t>58650.00</t>
@@ -22456,7 +23444,11 @@
           <t>8 rft</t>
         </is>
       </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N249" t="inlineStr">
         <is>
           <t>3000.00</t>
@@ -22538,7 +23530,11 @@
           <t>783.35 sft</t>
         </is>
       </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N250" t="inlineStr">
         <is>
           <t>115152.45</t>
@@ -22620,7 +23616,11 @@
           <t>82.50 sft</t>
         </is>
       </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N251" t="inlineStr">
         <is>
           <t>52387.50</t>
@@ -22702,7 +23702,11 @@
           <t>380 rft</t>
         </is>
       </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N252" t="inlineStr">
         <is>
           <t>28500.00</t>
@@ -22784,7 +23788,11 @@
           <t>628 rft</t>
         </is>
       </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N253" t="inlineStr">
         <is>
           <t>69080.00</t>
@@ -22866,7 +23874,11 @@
           <t>626.68 Sft</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N254" t="inlineStr">
         <is>
           <t>708513.00</t>
@@ -22948,7 +23960,11 @@
           <t>6 NOS</t>
         </is>
       </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr">
         <is>
           <t>480000.00</t>
@@ -23030,7 +24046,11 @@
           <t>3617 SFT</t>
         </is>
       </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N256" t="inlineStr">
         <is>
           <t>596805.00</t>
@@ -23112,7 +24132,11 @@
           <t>261.29 SFT</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N257" t="inlineStr">
         <is>
           <t>43112.85</t>
@@ -23194,7 +24218,11 @@
           <t>7 NOS</t>
         </is>
       </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
       <c r="N258" t="inlineStr">
         <is>
           <t>109200.00</t>
@@ -23276,7 +24304,11 @@
           <t>7 pair</t>
         </is>
       </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
       <c r="N259" t="inlineStr">
         <is>
           <t>39375.00</t>
@@ -23358,7 +24390,11 @@
           <t>9 pcs</t>
         </is>
       </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
       <c r="N260" t="inlineStr">
         <is>
           <t>110250.00</t>
@@ -23440,7 +24476,11 @@
           <t>1106.90 sft</t>
         </is>
       </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N261" t="inlineStr">
         <is>
           <t>215845.50</t>
@@ -23522,7 +24562,11 @@
           <t>485.17 sft</t>
         </is>
       </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N262" t="inlineStr">
         <is>
           <t>36387.75</t>
@@ -23604,7 +24648,11 @@
           <t>304.24 sft</t>
         </is>
       </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N263" t="inlineStr">
         <is>
           <t>86708.40</t>
@@ -23686,7 +24734,11 @@
           <t>1520.79 sft</t>
         </is>
       </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N264" t="inlineStr">
         <is>
           <t>250930.35</t>
@@ -23768,7 +24820,11 @@
           <t>355 sft</t>
         </is>
       </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N265" t="inlineStr">
         <is>
           <t>37275.00</t>
@@ -23850,7 +24906,11 @@
           <t>791.85 sft</t>
         </is>
       </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N266" t="inlineStr">
         <is>
           <t>31674.00</t>
@@ -23932,7 +24992,11 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N267" t="inlineStr">
         <is>
           <t>21500.00</t>
@@ -24014,7 +25078,11 @@
           <t>1 job</t>
         </is>
       </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N268" t="inlineStr">
         <is>
           <t>145000.00</t>
@@ -24100,7 +25168,11 @@
           <t>226.67 sft</t>
         </is>
       </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N269" t="inlineStr">
         <is>
           <t>36267.20</t>
@@ -24182,7 +25254,11 @@
           <t>128 sft</t>
         </is>
       </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N270" t="inlineStr">
         <is>
           <t>83200.00</t>
@@ -24264,7 +25340,11 @@
           <t>115 sft</t>
         </is>
       </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N271" t="inlineStr">
         <is>
           <t>74750.00</t>
@@ -24346,7 +25426,11 @@
           <t>296 sft</t>
         </is>
       </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N272" t="inlineStr">
         <is>
           <t>140600.00</t>
@@ -24428,7 +25512,11 @@
           <t>357.83 sft</t>
         </is>
       </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N273" t="inlineStr">
         <is>
           <t>134186.25</t>
@@ -24510,7 +25598,11 @@
           <t>12 sft</t>
         </is>
       </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N274" t="inlineStr">
         <is>
           <t>3900.00</t>
@@ -24592,7 +25684,11 @@
           <t>50 nos</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="N275" t="inlineStr">
         <is>
           <t>1000000.00</t>
@@ -24674,7 +25770,11 @@
           <t>26 nos</t>
         </is>
       </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
       <c r="N276" t="inlineStr">
         <is>
           <t>117000.00</t>
@@ -24756,7 +25856,11 @@
           <t>3 set</t>
         </is>
       </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N277" t="inlineStr">
         <is>
           <t>165000.00</t>
@@ -24838,7 +25942,11 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N278" t="inlineStr">
         <is>
           <t>47500.00</t>
@@ -24920,7 +26028,11 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N279" t="inlineStr">
         <is>
           <t>73500.00</t>
@@ -25002,7 +26114,11 @@
           <t>4 nos</t>
         </is>
       </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N280" t="inlineStr">
         <is>
           <t>50800.00</t>
@@ -25084,7 +26200,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="N281" t="inlineStr">
         <is>
           <t>47000.00</t>
@@ -25166,7 +26286,11 @@
           <t>12 nos</t>
         </is>
       </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
       <c r="N282" t="inlineStr">
         <is>
           <t>96000.00</t>
@@ -25248,7 +26372,11 @@
           <t>192 sft</t>
         </is>
       </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N283" t="inlineStr">
         <is>
           <t>220800.00</t>
@@ -25334,7 +26462,11 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N284" t="inlineStr">
         <is>
           <t>65000.00</t>
@@ -25420,7 +26552,11 @@
           <t>6 PCS</t>
         </is>
       </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
       <c r="N285" t="inlineStr">
         <is>
           <t>87000.00</t>
@@ -25506,7 +26642,11 @@
           <t>4 pcs</t>
         </is>
       </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N286" t="inlineStr">
         <is>
           <t>140000.00</t>
@@ -25588,7 +26728,11 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N287" t="inlineStr">
         <is>
           <t>95000.00</t>
@@ -25674,7 +26818,11 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N288" t="inlineStr">
         <is>
           <t>60000.00</t>
@@ -25760,7 +26908,11 @@
           <t>50 pcs</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="N289" t="inlineStr">
         <is>
           <t>422500.00</t>
@@ -25846,7 +26998,11 @@
           <t>1 pcs</t>
         </is>
       </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N290" t="inlineStr">
         <is>
           <t>8450.00</t>
@@ -25932,7 +27088,11 @@
           <t>8 pcs</t>
         </is>
       </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
       <c r="N291" t="inlineStr">
         <is>
           <t>60000.00</t>
@@ -26018,7 +27178,11 @@
           <t>36 sft</t>
         </is>
       </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
       <c r="N292" t="inlineStr">
         <is>
           <t>23400.00</t>
@@ -26104,7 +27268,11 @@
           <t>182.20 sft</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N293" t="inlineStr">
         <is>
           <t>118430.00</t>
@@ -26190,7 +27358,11 @@
           <t>13.75 SFT</t>
         </is>
       </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N294" t="inlineStr">
         <is>
           <t>8937.50</t>
@@ -26276,7 +27448,11 @@
           <t>50 PCS</t>
         </is>
       </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="N295" t="inlineStr">
         <is>
           <t>200000.00</t>
@@ -26358,7 +27534,11 @@
           <t>4008 SFT</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N296" t="inlineStr">
         <is>
           <t>1182360.00</t>
@@ -26440,7 +27620,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
       <c r="N297" t="inlineStr">
         <is>
           <t>120000.00</t>
@@ -26522,7 +27706,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N298" t="inlineStr">
         <is>
           <t>78800.00</t>
@@ -26604,7 +27792,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="N299" t="inlineStr">
         <is>
           <t>50100.00</t>
@@ -26686,7 +27878,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="N300" t="inlineStr">
         <is>
           <t>188000.00</t>
@@ -26768,7 +27964,11 @@
           <t>1 nos</t>
         </is>
       </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N301" t="inlineStr">
         <is>
           <t>45500.00</t>
@@ -26822,7 +28022,11 @@
         </is>
       </c>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="inlineStr"/>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="N302" t="inlineStr">
         <is>
           <t>13225574.95</t>
